--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OK.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OK.xlsx
@@ -44,75 +44,75 @@
     <t>Roses and Riches</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Quick 50</t>
+  </si>
+  <si>
+    <t>Reindeer Riches</t>
+  </si>
+  <si>
+    <t>2 for $1</t>
+  </si>
+  <si>
+    <t>Cash Dash</t>
+  </si>
+  <si>
+    <t>Lucky 7</t>
+  </si>
+  <si>
+    <t>Lucky Gems</t>
+  </si>
+  <si>
+    <t>Day of the Dead</t>
+  </si>
+  <si>
+    <t>10K GOLD</t>
+  </si>
+  <si>
+    <t>Bright Bucks</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>Jewel Jackpot</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Cash Wheel</t>
+  </si>
+  <si>
+    <t>Mint Money</t>
+  </si>
+  <si>
+    <t>Diamond Dazzler</t>
+  </si>
+  <si>
+    <t>Fruit Fortune</t>
+  </si>
+  <si>
+    <t>14K GOLD</t>
+  </si>
+  <si>
+    <t>Stacks of Cash</t>
+  </si>
+  <si>
+    <t>Big Bucks</t>
+  </si>
+  <si>
+    <t>Snow Me the Money</t>
+  </si>
+  <si>
+    <t>Easy as 1-2-3</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>Quick 50</t>
-  </si>
-  <si>
-    <t>Reindeer Riches</t>
-  </si>
-  <si>
-    <t>2 for $1</t>
-  </si>
-  <si>
-    <t>Cash Dash</t>
-  </si>
-  <si>
-    <t>Lucky 7</t>
-  </si>
-  <si>
-    <t>Lucky Gems</t>
-  </si>
-  <si>
-    <t>Day of the Dead</t>
-  </si>
-  <si>
-    <t>10K GOLD</t>
-  </si>
-  <si>
-    <t>Bright Bucks</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>Jewel Jackpot</t>
-  </si>
-  <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
-    <t>Cash Wheel</t>
-  </si>
-  <si>
-    <t>Mint Money</t>
-  </si>
-  <si>
-    <t>Diamond Dazzler</t>
-  </si>
-  <si>
-    <t>Fruit Fortune</t>
-  </si>
-  <si>
-    <t>Easy as 1-2-3</t>
-  </si>
-  <si>
-    <t>2019-03-06</t>
-  </si>
-  <si>
-    <t>Stacks of Cash</t>
-  </si>
-  <si>
-    <t>14K GOLD</t>
-  </si>
-  <si>
-    <t>Big Bucks</t>
-  </si>
-  <si>
-    <t>Snow Me the Money</t>
-  </si>
-  <si>
     <t>Money Multiplier</t>
   </si>
   <si>
@@ -140,10 +140,10 @@
     <t>Oklahoma Black</t>
   </si>
   <si>
+    <t>Cash Eruption</t>
+  </si>
+  <si>
     <t>Max Money</t>
-  </si>
-  <si>
-    <t>Cash Eruption</t>
   </si>
   <si>
     <t>SILVER &amp; GOLD CROSSWORD</t>
@@ -840,14 +840,11 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>503</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -858,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>498</v>
@@ -878,7 +875,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>510</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -895,10 +895,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -915,13 +912,16 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>503</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>31</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1088,11 +1088,8 @@
       <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="D31">
-        <v>507</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1108,8 +1105,11 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
+      <c r="D32">
+        <v>507</v>
+      </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_OK.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_OK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>STATE</t>
   </si>
@@ -41,130 +41,139 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Quick 50</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>Roses and Riches</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Quick 50</t>
-  </si>
-  <si>
     <t>Reindeer Riches</t>
   </si>
   <si>
+    <t>Lucky Gems</t>
+  </si>
+  <si>
+    <t>Cash Dash</t>
+  </si>
+  <si>
+    <t>Lucky 7</t>
+  </si>
+  <si>
+    <t>10K GOLD</t>
+  </si>
+  <si>
+    <t>Redbud Bucks</t>
+  </si>
+  <si>
     <t>2 for $1</t>
   </si>
   <si>
-    <t>Cash Dash</t>
-  </si>
-  <si>
-    <t>Lucky 7</t>
-  </si>
-  <si>
-    <t>Lucky Gems</t>
+    <t>2019-03-21</t>
   </si>
   <si>
     <t>Day of the Dead</t>
   </si>
   <si>
-    <t>10K GOLD</t>
-  </si>
-  <si>
     <t>Bright Bucks</t>
   </si>
   <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Diamond Dazzler</t>
+  </si>
+  <si>
+    <t>Fruit Fortune</t>
+  </si>
+  <si>
+    <t>Mint Money</t>
+  </si>
+  <si>
+    <t>Lucky 13</t>
+  </si>
+  <si>
+    <t>Win It All</t>
+  </si>
+  <si>
+    <t>Big Bucks</t>
+  </si>
+  <si>
+    <t>Snow Me the Money</t>
+  </si>
+  <si>
+    <t>Money Multiplier</t>
+  </si>
+  <si>
     <t>Jewel Jackpot</t>
   </si>
   <si>
-    <t>Lucky 13</t>
-  </si>
-  <si>
     <t>Cash Wheel</t>
   </si>
   <si>
-    <t>Mint Money</t>
-  </si>
-  <si>
-    <t>Diamond Dazzler</t>
-  </si>
-  <si>
-    <t>Fruit Fortune</t>
+    <t>Easy as 1-2-3</t>
+  </si>
+  <si>
+    <t>Stacks of Cash</t>
   </si>
   <si>
     <t>14K GOLD</t>
   </si>
   <si>
-    <t>Stacks of Cash</t>
-  </si>
-  <si>
-    <t>Big Bucks</t>
-  </si>
-  <si>
-    <t>Snow Me the Money</t>
-  </si>
-  <si>
-    <t>Easy as 1-2-3</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Money Maze</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
     <t>Diamond Mine</t>
   </si>
   <si>
-    <t>Bingo</t>
-  </si>
-  <si>
-    <t>Money Maze</t>
-  </si>
-  <si>
     <t>Crossword</t>
   </si>
   <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Max Money</t>
+  </si>
+  <si>
+    <t>Cash Eruption</t>
+  </si>
+  <si>
+    <t>Diamond Deluxe</t>
+  </si>
+  <si>
+    <t>Oklahoma Black</t>
+  </si>
+  <si>
+    <t>18K GOLD</t>
+  </si>
+  <si>
     <t>Break the Bank</t>
   </si>
   <si>
-    <t>Oklahoma Black</t>
-  </si>
-  <si>
-    <t>Cash Eruption</t>
-  </si>
-  <si>
-    <t>Max Money</t>
-  </si>
-  <si>
     <t>SILVER &amp; GOLD CROSSWORD</t>
   </si>
   <si>
     <t>Fiery 5s</t>
   </si>
   <si>
-    <t>18K GOLD</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Cash King</t>
+  </si>
+  <si>
     <t>24K GOLD</t>
   </si>
   <si>
     <t>$100,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Cash King</t>
   </si>
   <si>
     <t>25X the Cash</t>
@@ -506,7 +515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,8 +553,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>514</v>
+      </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -561,11 +573,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>514</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -598,9 +607,6 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>509</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -619,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -639,7 +645,7 @@
         <v>458</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -656,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -672,11 +678,8 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>506</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -692,11 +695,14 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
+      <c r="D10">
+        <v>509</v>
+      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -707,16 +713,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>506</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11">
-        <v>504</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -724,19 +730,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -744,13 +750,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -761,16 +767,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>480</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -781,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>505</v>
@@ -801,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -818,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -835,10 +838,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>510</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -852,13 +858,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>498</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -872,13 +875,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -892,16 +892,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>495</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -909,19 +912,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,16 +932,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
+      <c r="D23">
+        <v>503</v>
+      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -946,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
       <c r="D24">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -966,16 +972,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -986,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1006,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1026,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
       <c r="D28">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1046,16 +1049,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <v>512</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1066,10 +1066,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>464</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1083,13 +1086,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
+      <c r="D31">
+        <v>507</v>
+      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1100,14 +1106,11 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D32">
-        <v>507</v>
-      </c>
       <c r="E32">
         <v>2</v>
       </c>
@@ -1120,16 +1123,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D33">
-        <v>491</v>
-      </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1140,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1194,19 +1194,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
       <c r="D37">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1214,16 +1214,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>491</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1231,19 +1234,93 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>487</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>496</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
